--- a/requests.xlsx
+++ b/requests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502CFC6F-9588-46B5-987D-4771B8C275B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D8D5F-E985-441F-86DA-AA1176B979F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>CLIENT</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>type: next-turn, content: id, to: all</t>
+  </si>
+  <si>
+    <t>type: ready, content:</t>
+  </si>
+  <si>
+    <t>type: ready, content: id, to: all</t>
   </si>
 </sst>
 </file>
@@ -94,13 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE692BF8-DE12-4090-A110-C3E05B3C673C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,49 +454,69 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D8D5F-E985-441F-86DA-AA1176B979F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EEE8E9-5FD1-41CC-8638-60B73A3F4653}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>CLIENT</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>type: ready, content: id, to: all</t>
+  </si>
+  <si>
+    <t>type: start-game, content: , to: all</t>
   </si>
 </sst>
 </file>
@@ -106,10 +109,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +431,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +457,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -462,7 +465,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -470,13 +473,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -484,39 +487,42 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EEE8E9-5FD1-41CC-8638-60B73A3F4653}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53434E-6950-4DBF-A179-CDC5A20AB54C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>CLIENT</t>
   </si>
@@ -45,9 +45,6 @@
     <t>type: move, content: [[x, y], [x, y]], to: all</t>
   </si>
   <si>
-    <t>type: wrong-move, content: , to: id</t>
-  </si>
-  <si>
     <t>type: fetch, content:</t>
   </si>
   <si>
@@ -67,6 +64,45 @@
   </si>
   <si>
     <t>type: start-game, content: , to: all</t>
+  </si>
+  <si>
+    <t>type: wrong-move, content: [[x, y], [x, y]], to: id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>when?</t>
+  </si>
+  <si>
+    <t>pregame</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>a client is ready; game starts with all ready</t>
+  </si>
+  <si>
+    <t>move was ok</t>
+  </si>
+  <si>
+    <t>move wasn't ok; content is rollback</t>
+  </si>
+  <si>
+    <t>new client joined the server</t>
+  </si>
+  <si>
+    <t>someone moved</t>
+  </si>
+  <si>
+    <t>end of a turn; content is the id of next turn</t>
+  </si>
+  <si>
+    <t>default response</t>
+  </si>
+  <si>
+    <t>game started; switch scene</t>
   </si>
 </sst>
 </file>
@@ -428,95 +464,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE692BF8-DE12-4090-A110-C3E05B3C673C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.5703125" customWidth="1"/>
     <col min="2" max="2" width="73.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53434E-6950-4DBF-A179-CDC5A20AB54C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE77928-2115-4898-9416-3837416F0A77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>CLIENT</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>game started; switch scene</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>type: bad-request, content: , to: id</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>misformed req</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +621,18 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE77928-2115-4898-9416-3837416F0A77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D45C1-34BF-4FDD-B29F-FEBEC0601625}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>CLIENT</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>misformed req</t>
+  </si>
+  <si>
+    <t>type: load-map, content: [], to: all</t>
+  </si>
+  <si>
+    <t>map array</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,21 +627,30 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -643,7 +658,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartor\IdeaProjects\chinesecheckers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D45C1-34BF-4FDD-B29F-FEBEC0601625}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B3EEE-3CB4-47F8-8A10-A5A7F7EE0828}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7CCB15A5-B2D8-4F62-91AC-CDA0125EA8B2}"/>
   </bookViews>
@@ -39,15 +39,9 @@
     <t>type: new-client, content: [nick, id], to: all</t>
   </si>
   <si>
-    <t>type: move, content: [[x, y], [x, y]]</t>
-  </si>
-  <si>
     <t>type: move, content: [[x, y], [x, y]], to: all</t>
   </si>
   <si>
-    <t>type: fetch, content:</t>
-  </si>
-  <si>
     <t>type: no-changes, content: , to: id</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>type: next-turn, content: id, to: all</t>
   </si>
   <si>
-    <t>type: ready, content:</t>
-  </si>
-  <si>
     <t>type: ready, content: id, to: all</t>
   </si>
   <si>
@@ -121,6 +112,15 @@
   </si>
   <si>
     <t>map array</t>
+  </si>
+  <si>
+    <t>type: ready, content: , from: Id</t>
+  </si>
+  <si>
+    <t>type: move, content: [[x, y], [x, y]], from: Id</t>
+  </si>
+  <si>
+    <t>type: fetch, content: , from: Id</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,138 +518,138 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
